--- a/data/apicases.xlsx
+++ b/data/apicases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9420" windowWidth="23040"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9420" windowWidth="23040"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
@@ -39,7 +39,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -62,22 +100,44 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -100,30 +160,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -132,51 +177,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -190,13 +190,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,73 +244,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,37 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,19 +292,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,13 +346,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,72 +388,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,12 +410,77 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -489,10 +489,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="17" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="15" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -501,133 +501,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="21" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="9" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="7" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="20" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1540,7 +1540,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":"#random_username#","random_email":"#random_email#","password":"an123456","password_confirm":"an123456"}</t>
+          <t>{"username":"#random_username#","email":"#random_email#","password":"an123456","password_confirm":"an123456"}</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":"keyou1","random_email":"#random_email#","password":"an123456","password_confirm":"an123456"}</t>
+          <t>{"username":"keyou1","email":"#random_email#","password":"an123456","password_confirm":"an123456"}</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":"#random_username#","random_email":"keyou520@qq.com","password":"an123456","password_confirm":"an123456"}</t>
+          <t>{"username":"#random_username#","email":"keyou520@qq.com","password":"an123456","password_confirm":"an123456"}</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":"#random_username#","random_email":"#random_email#","password":"an123","password_confirm":"an123"}</t>
+          <t>{"username":"#random_username#","email":"#random_email#","password":"an123","password_confirm":"an123"}</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":"#random_username#","random_email":"#random_email#","password":"an12345678901234567890","password_confirm":"an12345678901234567890"}</t>
+          <t>{"username":"#random_username#","email":"#random_email#","password":"an12345678901234567890","password_confirm":"an12345678901234567890"}</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":"#random_username#","random_email":"#random_email#","password":"an123456","password_confirm":"an123461"}</t>
+          <t>{"username":"#random_username#","email":"#random_email#","password":"an123456","password_confirm":"an123461"}</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":None,"random_email":"#random_email#","password":"an123456","password_confirm":"an123456"}</t>
+          <t>{"username":None,"email":"#random_email#","password":"an123456","password_confirm":"an123456"}</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":"#random_username#","random_email":None,"password":"an123456","password_confirm":"an123456"}</t>
+          <t>{"username":"#random_username#","email":None,"password":"an123456","password_confirm":"an123456"}</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":"#random_username#","random_email":"#random_email#","password":None,"password_confirm":"an123456"}</t>
+          <t>{"username":"#random_username#","email":"#random_email#","password":None,"password_confirm":"an123456"}</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>{"random_username":"#random_username#","random_email":"#random_email#","password":"an123456","password_confirm":None}</t>
+          <t>{"username":"#random_username#","email":"#random_email#","password":"an123456","password_confirm":None}</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -2866,8 +2866,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
+      <selection activeCell="G3" sqref="G3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -3293,18 +3293,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="3" min="3" style="1" width="30.4444444444444"/>
-    <col customWidth="1" max="5" min="5" style="1" width="26.3333333333333"/>
-    <col customWidth="1" max="6" min="6" style="1" width="58"/>
-    <col customWidth="1" max="7" min="7" style="1" width="17.7777777777778"/>
+    <col customWidth="1" max="5" min="5" style="1" width="16.4444444444444"/>
+    <col customWidth="1" max="6" min="6" style="1" width="86.7777777777778"/>
+    <col customWidth="1" max="7" min="7" style="1" width="27.5555555555556"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3348,11 +3348,6 @@
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
-        <is>
-          <t>check_sql</t>
-        </is>
-      </c>
     </row>
     <row customHeight="1" ht="57.6" r="2" s="1">
       <c r="A2" s="0" t="n">
@@ -3360,12 +3355,12 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>testcase</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>新建项目-未审核状态</t>
+          <t>新增测试用例成功</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -3375,17 +3370,17 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>/loan/add</t>
+          <t>/testcases/</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"ann测试新增项目","amount":100,"loan_rate":5.0,"loan_term":6,"loan_date_type":1,"bidding_days":1}</t>
+          <t>{ "name": "0310执行用例接口名称#testcase_name#", "interface": { "pid": 487, "iid" : #interface_id# },"author": "ann", "request": "请求信息数据" }</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>{"code":0}</t>
+          <t>{"status_code":201}</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
@@ -3394,38 +3389,38 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="1" ht="54" r="3" s="1">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>audit</t>
+          <t>testcase</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>项目未审核状态进行审核-通过</t>
+          <t>用例名称已经存在</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>patch</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>/loan/audit</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>{"loan_id":#loan_id#,"approved_or_not":"true"}</t>
+          <t>/testcases/</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{ "name": "#have_testcases_name#", "interface": { "pid": 487, "iid" : #interface_id# },"author": "ann", "request": "请求信息数据" }</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>{"code":0}</t>
+          <t>{"status_code":400}</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -3433,62 +3428,59 @@
           <t>通过</t>
         </is>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row customHeight="1" ht="43.2" r="4" s="1">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>audit</t>
+          <t>testcase</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>对审核通过的项目再次审核</t>
+          <t>所属项目id在系统中不存在</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>patch</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>/loan/audit</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>{"loan_id":6,"approved_or_not":"true"}</t>
+          <t>/testcases/</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{ "name": "0310执行用例接口名称#testcase_name#", "interface": { "pid": 487999999, "iid" : #interface_id# },"author": "ann", "request": "请求信息数据" }</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>{"code":1}</t>
+          <t>{"status_code":400}</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="57.6" r="5" s="1">
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.2" r="5" s="1">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>add</t>
+          <t>testcase</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>新建项目-未审核状态</t>
+          <t>所属接口id在系统中不存在</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -3498,17 +3490,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>/loan/add</t>
+          <t>/testcases/</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{"member_id":#member_id#,"title":"ann测试新增项目2","amount":100,"loan_rate":5.0,"loan_term":6,"loan_date_type":1,"bidding_days":1}</t>
+          <t>{ "name": "0310执行用例接口名称#testcase_name#", "interface": { "pid": 487, "iid" : #interface_id#99999 },"author": "ann", "request": "请求信息数据" }</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>{"code":0}</t>
+          <t>{"status_code":400}</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -3517,38 +3509,38 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="1" ht="66" r="6" s="1">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>audit</t>
+          <t>testcase</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>项目未审核状态进行审核-不通过</t>
+          <t>项目id和接口id不匹配</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>patch</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>/loan/audit</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>{"loan_id":#loan_id#,"approved_or_not":"false"}</t>
+          <t>/testcases/</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>{ "name": "0310执行用例接口名称#testcase_name#", "interface": { "pid": 477, "iid" : #interface_id# },"author": "ann", "request": "请求信息数据" }</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>{"code":0}</t>
+          <t>{"status_code":400}</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
@@ -3556,42 +3548,39 @@
           <t>通过</t>
         </is>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row customHeight="1" ht="57.6" r="7" s="1">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>audit</t>
+          <t>testcase</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>项目id为空</t>
+          <t>用例名称超过50个字符</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>patch</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>/loan/audit</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>{"loan_id":None,"approved_or_not":"false"}</t>
+          <t>/testcases/</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>{ "name": "0310执行用例接口名称345678900310执行用例接口名称345678900310执行用例接口名称34567890#testcase_name#", "interface": { "pid": 487, "iid" : #interface_id# },"author": "ann", "request": "请求信息数据" }</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>{"code":1}</t>
+          <t>{"status_code":400}</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
@@ -3600,38 +3589,38 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row customHeight="1" ht="57.6" r="8" s="1">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>audit</t>
+          <t>testcase</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>审核字段为空</t>
+          <t>编写人员超过50个字符</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>patch</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>/loan/audit</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>{"loan_id":#loan_id#,"approved_or_not":None}</t>
+          <t>/testcases/</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>{ "name": "0310执行用例接口名称#testcase_name#", "interface": { "pid": 487, "iid" : #interface_id# },"author": "ann4567890ann4567890ann4567890ann4567890ann4567890ann4567890", "request": "请求信息数据" }</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>{"code":1}</t>
+          <t>{"status_code":400}</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
@@ -3640,41 +3629,161 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row customHeight="1" ht="28.8" r="9" s="1">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>audit</t>
+          <t>testcase</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>项目id不存在</t>
+          <t>名称为空</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>patch</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>/loan/audit</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>{"loan_id":#loan_id#+999999,"approved_or_not":"false"}</t>
+          <t>/testcases/</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>{ "name": None, "interface": { "pid": 487, "iid" : #interface_id# },"author": "ann", "request": "请求信息数据" }</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>{"code":2}</t>
+          <t>{"status_code":400}</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.2" r="10" s="1">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>testcase</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>所属项目和接口id为空</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>/testcases/</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>{ "name": "0310执行用例接口名称#testcase_name#", "interface": { "pid": None, "iid" : None },"author": "ann", "request": "请求信息数据" }</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>{"status_code":400}</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.2" r="11" s="1">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>testcase</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>编写人员为空</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>/testcases/</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>{ "name": "0310执行用例接口名称#testcase_name#", "interface": { "pid": 487, "iid" : #interface_id# },"author": None, "request": "请求信息数据" }</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>{"status_code":400}</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.2" r="12" s="1">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>testcase</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>请求信息为空</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>/testcases/</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>{ "name": "0310执行用例接口名称#testcase_name#", "interface": { "pid": 487, "iid" : #interface_id# },"author": "ann", "request": None }</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>{"status_code":400}</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
